--- a/natmiOut/OldD2/LR-pairs_lrc2p/Nid1-Itgb3.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Nid1-Itgb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Itgb3</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>93.42764966544679</v>
+        <v>93.42766950000001</v>
       </c>
       <c r="H2">
-        <v>93.42764966544679</v>
+        <v>186.855339</v>
       </c>
       <c r="I2">
-        <v>0.3305192438573158</v>
+        <v>0.319845868560297</v>
       </c>
       <c r="J2">
-        <v>0.3305192438573158</v>
+        <v>0.2501060805639032</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.92014993748544</v>
+        <v>5.5509805</v>
       </c>
       <c r="N2">
-        <v>4.92014993748544</v>
+        <v>11.101961</v>
       </c>
       <c r="O2">
-        <v>0.444624790257125</v>
+        <v>0.4587918645086687</v>
       </c>
       <c r="P2">
-        <v>0.444624790257125</v>
+        <v>0.3684119094562331</v>
       </c>
       <c r="Q2">
-        <v>459.6780446608596</v>
+        <v>518.6151715549447</v>
       </c>
       <c r="R2">
-        <v>459.6780446608596</v>
+        <v>2074.460686219779</v>
       </c>
       <c r="S2">
-        <v>0.1469570494760026</v>
+        <v>0.1467426823921732</v>
       </c>
       <c r="T2">
-        <v>0.1469570494760026</v>
+        <v>0.09214205870716205</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>93.42764966544679</v>
+        <v>93.42766950000001</v>
       </c>
       <c r="H3">
-        <v>93.42764966544679</v>
+        <v>186.855339</v>
       </c>
       <c r="I3">
-        <v>0.3305192438573158</v>
+        <v>0.319845868560297</v>
       </c>
       <c r="J3">
-        <v>0.3305192438573158</v>
+        <v>0.2501060805639032</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.25869714417192</v>
+        <v>1.327207</v>
       </c>
       <c r="N3">
-        <v>1.25869714417192</v>
+        <v>3.981621</v>
       </c>
       <c r="O3">
-        <v>0.1137461176662237</v>
+        <v>0.1096944538210784</v>
       </c>
       <c r="P3">
-        <v>0.1137461176662237</v>
+        <v>0.1321277020646205</v>
       </c>
       <c r="Q3">
-        <v>117.5971158205925</v>
+        <v>123.9978569540865</v>
       </c>
       <c r="R3">
-        <v>117.5971158205925</v>
+        <v>743.987141724519</v>
       </c>
       <c r="S3">
-        <v>0.03759528080274553</v>
+        <v>0.0350853178586502</v>
       </c>
       <c r="T3">
-        <v>0.03759528080274553</v>
+        <v>0.03304594169729737</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>93.42764966544679</v>
+        <v>93.42766950000001</v>
       </c>
       <c r="H4">
-        <v>93.42764966544679</v>
+        <v>186.855339</v>
       </c>
       <c r="I4">
-        <v>0.3305192438573158</v>
+        <v>0.319845868560297</v>
       </c>
       <c r="J4">
-        <v>0.3305192438573158</v>
+        <v>0.2501060805639032</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.245400130904583</v>
+        <v>0.250284</v>
       </c>
       <c r="N4">
-        <v>0.245400130904583</v>
+        <v>0.750852</v>
       </c>
       <c r="O4">
-        <v>0.02217635298087786</v>
+        <v>0.02068612257180288</v>
       </c>
       <c r="P4">
-        <v>0.02217635298087786</v>
+        <v>0.02491657276034671</v>
       </c>
       <c r="Q4">
-        <v>22.92715745800816</v>
+        <v>23.383450833138</v>
       </c>
       <c r="R4">
-        <v>22.92715745800816</v>
+        <v>140.300704998828</v>
       </c>
       <c r="S4">
-        <v>0.007329711418752681</v>
+        <v>0.006616370841123057</v>
       </c>
       <c r="T4">
-        <v>0.007329711418752681</v>
+        <v>0.00623178635417563</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>93.42764966544679</v>
+        <v>93.42766950000001</v>
       </c>
       <c r="H5">
-        <v>93.42764966544679</v>
+        <v>186.855339</v>
       </c>
       <c r="I5">
-        <v>0.3305192438573158</v>
+        <v>0.319845868560297</v>
       </c>
       <c r="J5">
-        <v>0.3305192438573158</v>
+        <v>0.2501060805639032</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.348726167180263</v>
+        <v>0.3570200000000001</v>
       </c>
       <c r="N5">
-        <v>0.348726167180263</v>
+        <v>1.07106</v>
       </c>
       <c r="O5">
-        <v>0.03151373452227327</v>
+        <v>0.02950791692870925</v>
       </c>
       <c r="P5">
-        <v>0.03151373452227327</v>
+        <v>0.03554248296694548</v>
       </c>
       <c r="Q5">
-        <v>32.58066617649164</v>
+        <v>33.35554656489001</v>
       </c>
       <c r="R5">
-        <v>32.58066617649164</v>
+        <v>200.13327938934</v>
       </c>
       <c r="S5">
-        <v>0.01041589570542195</v>
+        <v>0.009437985319468101</v>
       </c>
       <c r="T5">
-        <v>0.01041589570542195</v>
+        <v>0.008889391108372025</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>93.42764966544679</v>
+        <v>93.42766950000001</v>
       </c>
       <c r="H6">
-        <v>93.42764966544679</v>
+        <v>186.855339</v>
       </c>
       <c r="I6">
-        <v>0.3305192438573158</v>
+        <v>0.319845868560297</v>
       </c>
       <c r="J6">
-        <v>0.3305192438573158</v>
+        <v>0.2501060805639032</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.69029222727481</v>
+        <v>4.001879333333334</v>
       </c>
       <c r="N6">
-        <v>3.69029222727481</v>
+        <v>12.005638</v>
       </c>
       <c r="O6">
-        <v>0.3334848385490725</v>
+        <v>0.3307577248521605</v>
       </c>
       <c r="P6">
-        <v>0.3334848385490725</v>
+        <v>0.3983998880756572</v>
       </c>
       <c r="Q6">
-        <v>344.7753293729523</v>
+        <v>373.8862597335471</v>
       </c>
       <c r="R6">
-        <v>344.7753293729523</v>
+        <v>2243.317558401282</v>
       </c>
       <c r="S6">
-        <v>0.1102231566751185</v>
+        <v>0.105791491788367</v>
       </c>
       <c r="T6">
-        <v>0.1102231566751185</v>
+        <v>0.09964223450370036</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>93.42764966544679</v>
+        <v>93.42766950000001</v>
       </c>
       <c r="H7">
-        <v>93.42764966544679</v>
+        <v>186.855339</v>
       </c>
       <c r="I7">
-        <v>0.3305192438573158</v>
+        <v>0.319845868560297</v>
       </c>
       <c r="J7">
-        <v>0.3305192438573158</v>
+        <v>0.2501060805639032</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.602581474159304</v>
+        <v>0.611755</v>
       </c>
       <c r="N7">
-        <v>0.602581474159304</v>
+        <v>1.22351</v>
       </c>
       <c r="O7">
-        <v>0.0544541660244277</v>
+        <v>0.05056191731758031</v>
       </c>
       <c r="P7">
-        <v>0.0544541660244277</v>
+        <v>0.04060144467619692</v>
       </c>
       <c r="Q7">
-        <v>56.29777086264393</v>
+        <v>57.15484395497251</v>
       </c>
       <c r="R7">
-        <v>56.29777086264393</v>
+        <v>228.61937581989</v>
       </c>
       <c r="S7">
-        <v>0.01799814977927458</v>
+        <v>0.0161720203605154</v>
       </c>
       <c r="T7">
-        <v>0.01799814977927458</v>
+        <v>0.01015466819319577</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>97.2905348664374</v>
+        <v>104.3729526666667</v>
       </c>
       <c r="H8">
-        <v>97.2905348664374</v>
+        <v>313.118858</v>
       </c>
       <c r="I8">
-        <v>0.3441849830716806</v>
+        <v>0.3573166052255298</v>
       </c>
       <c r="J8">
-        <v>0.3441849830716806</v>
+        <v>0.4191099421838055</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.92014993748544</v>
+        <v>5.5509805</v>
       </c>
       <c r="N8">
-        <v>4.92014993748544</v>
+        <v>11.101961</v>
       </c>
       <c r="O8">
-        <v>0.444624790257125</v>
+        <v>0.4587918645086687</v>
       </c>
       <c r="P8">
-        <v>0.444624790257125</v>
+        <v>0.3684119094562331</v>
       </c>
       <c r="Q8">
-        <v>478.6840190410269</v>
+        <v>579.3722249800896</v>
       </c>
       <c r="R8">
-        <v>478.6840190410269</v>
+        <v>3476.233349880538</v>
       </c>
       <c r="S8">
-        <v>0.1530331759078981</v>
+        <v>0.1639339515313287</v>
       </c>
       <c r="T8">
-        <v>0.1530331759078981</v>
+        <v>0.1544050940720272</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>97.2905348664374</v>
+        <v>104.3729526666667</v>
       </c>
       <c r="H9">
-        <v>97.2905348664374</v>
+        <v>313.118858</v>
       </c>
       <c r="I9">
-        <v>0.3441849830716806</v>
+        <v>0.3573166052255298</v>
       </c>
       <c r="J9">
-        <v>0.3441849830716806</v>
+        <v>0.4191099421838055</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.25869714417192</v>
+        <v>1.327207</v>
       </c>
       <c r="N9">
-        <v>1.25869714417192</v>
+        <v>3.981621</v>
       </c>
       <c r="O9">
-        <v>0.1137461176662237</v>
+        <v>0.1096944538210784</v>
       </c>
       <c r="P9">
-        <v>0.1137461176662237</v>
+        <v>0.1321277020646205</v>
       </c>
       <c r="Q9">
-        <v>122.4593183913434</v>
+        <v>138.5245133898687</v>
       </c>
       <c r="R9">
-        <v>122.4593183913434</v>
+        <v>1246.720620508818</v>
       </c>
       <c r="S9">
-        <v>0.0391497055834186</v>
+        <v>0.03919564985141637</v>
       </c>
       <c r="T9">
-        <v>0.0391497055834186</v>
+        <v>0.05537603357318218</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>97.2905348664374</v>
+        <v>104.3729526666667</v>
       </c>
       <c r="H10">
-        <v>97.2905348664374</v>
+        <v>313.118858</v>
       </c>
       <c r="I10">
-        <v>0.3441849830716806</v>
+        <v>0.3573166052255298</v>
       </c>
       <c r="J10">
-        <v>0.3441849830716806</v>
+        <v>0.4191099421838055</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.245400130904583</v>
+        <v>0.250284</v>
       </c>
       <c r="N10">
-        <v>0.245400130904583</v>
+        <v>0.750852</v>
       </c>
       <c r="O10">
-        <v>0.02217635298087786</v>
+        <v>0.02068612257180288</v>
       </c>
       <c r="P10">
-        <v>0.02217635298087786</v>
+        <v>0.02491657276034671</v>
       </c>
       <c r="Q10">
-        <v>23.87510999200063</v>
+        <v>26.122880085224</v>
       </c>
       <c r="R10">
-        <v>23.87510999200063</v>
+        <v>235.105920767016</v>
       </c>
       <c r="S10">
-        <v>0.007632767675315058</v>
+        <v>0.00739149509263581</v>
       </c>
       <c r="T10">
-        <v>0.007632767675315058</v>
+        <v>0.01044278336900749</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>97.2905348664374</v>
+        <v>104.3729526666667</v>
       </c>
       <c r="H11">
-        <v>97.2905348664374</v>
+        <v>313.118858</v>
       </c>
       <c r="I11">
-        <v>0.3441849830716806</v>
+        <v>0.3573166052255298</v>
       </c>
       <c r="J11">
-        <v>0.3441849830716806</v>
+        <v>0.4191099421838055</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.348726167180263</v>
+        <v>0.3570200000000001</v>
       </c>
       <c r="N11">
-        <v>0.348726167180263</v>
+        <v>1.07106</v>
       </c>
       <c r="O11">
-        <v>0.03151373452227327</v>
+        <v>0.02950791692870925</v>
       </c>
       <c r="P11">
-        <v>0.03151373452227327</v>
+        <v>0.03554248296694548</v>
       </c>
       <c r="Q11">
-        <v>33.92775532689046</v>
+        <v>37.26323156105335</v>
       </c>
       <c r="R11">
-        <v>33.92775532689046</v>
+        <v>335.3690840494801</v>
       </c>
       <c r="S11">
-        <v>0.01084655418307406</v>
+        <v>0.01054366870424333</v>
       </c>
       <c r="T11">
-        <v>0.01084655418307406</v>
+        <v>0.01489620798134541</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>97.2905348664374</v>
+        <v>104.3729526666667</v>
       </c>
       <c r="H12">
-        <v>97.2905348664374</v>
+        <v>313.118858</v>
       </c>
       <c r="I12">
-        <v>0.3441849830716806</v>
+        <v>0.3573166052255298</v>
       </c>
       <c r="J12">
-        <v>0.3441849830716806</v>
+        <v>0.4191099421838055</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.69029222727481</v>
+        <v>4.001879333333334</v>
       </c>
       <c r="N12">
-        <v>3.69029222727481</v>
+        <v>12.005638</v>
       </c>
       <c r="O12">
-        <v>0.3334848385490725</v>
+        <v>0.3307577248521605</v>
       </c>
       <c r="P12">
-        <v>0.3334848385490725</v>
+        <v>0.3983998880756572</v>
       </c>
       <c r="Q12">
-        <v>359.0305046050228</v>
+        <v>417.6879622357117</v>
       </c>
       <c r="R12">
-        <v>359.0305046050228</v>
+        <v>3759.191660121405</v>
       </c>
       <c r="S12">
-        <v>0.1147804735106746</v>
+        <v>0.1181852273962938</v>
       </c>
       <c r="T12">
-        <v>0.1147804735106746</v>
+        <v>0.1669733540574233</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>97.2905348664374</v>
+        <v>104.3729526666667</v>
       </c>
       <c r="H13">
-        <v>97.2905348664374</v>
+        <v>313.118858</v>
       </c>
       <c r="I13">
-        <v>0.3441849830716806</v>
+        <v>0.3573166052255298</v>
       </c>
       <c r="J13">
-        <v>0.3441849830716806</v>
+        <v>0.4191099421838055</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.602581474159304</v>
+        <v>0.611755</v>
       </c>
       <c r="N13">
-        <v>0.602581474159304</v>
+        <v>1.22351</v>
       </c>
       <c r="O13">
-        <v>0.0544541660244277</v>
+        <v>0.05056191731758031</v>
       </c>
       <c r="P13">
-        <v>0.0544541660244277</v>
+        <v>0.04060144467619692</v>
       </c>
       <c r="Q13">
-        <v>58.62547392156501</v>
+        <v>63.85067565859668</v>
       </c>
       <c r="R13">
-        <v>58.62547392156501</v>
+        <v>383.1040539515801</v>
       </c>
       <c r="S13">
-        <v>0.01874230621130013</v>
+        <v>0.01806661264961172</v>
       </c>
       <c r="T13">
-        <v>0.01874230621130013</v>
+        <v>0.01701646913081987</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,49 +1284,49 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.231265986431065</v>
+        <v>0.05691833333333333</v>
       </c>
       <c r="H14">
-        <v>0.231265986431065</v>
+        <v>0.170755</v>
       </c>
       <c r="I14">
-        <v>0.0008181502931822288</v>
+        <v>0.00019485762472117</v>
       </c>
       <c r="J14">
-        <v>0.0008181502931822288</v>
+        <v>0.0002285557587770574</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.92014993748544</v>
+        <v>5.5509805</v>
       </c>
       <c r="N14">
-        <v>4.92014993748544</v>
+        <v>11.101961</v>
       </c>
       <c r="O14">
-        <v>0.444624790257125</v>
+        <v>0.4587918645086687</v>
       </c>
       <c r="P14">
-        <v>0.444624790257125</v>
+        <v>0.3684119094562331</v>
       </c>
       <c r="Q14">
-        <v>1.137863328681313</v>
+        <v>0.3159525584258333</v>
       </c>
       <c r="R14">
-        <v>1.137863328681313</v>
+        <v>1.895715350555</v>
       </c>
       <c r="S14">
-        <v>0.0003637699025049539</v>
+        <v>8.939909295955603E-05</v>
       </c>
       <c r="T14">
-        <v>0.0003637699025049539</v>
+        <v>8.420266350827394E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,49 +1346,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.231265986431065</v>
+        <v>0.05691833333333333</v>
       </c>
       <c r="H15">
-        <v>0.231265986431065</v>
+        <v>0.170755</v>
       </c>
       <c r="I15">
-        <v>0.0008181502931822288</v>
+        <v>0.00019485762472117</v>
       </c>
       <c r="J15">
-        <v>0.0008181502931822288</v>
+        <v>0.0002285557587770574</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.25869714417192</v>
+        <v>1.327207</v>
       </c>
       <c r="N15">
-        <v>1.25869714417192</v>
+        <v>3.981621</v>
       </c>
       <c r="O15">
-        <v>0.1137461176662237</v>
+        <v>0.1096944538210784</v>
       </c>
       <c r="P15">
-        <v>0.1137461176662237</v>
+        <v>0.1321277020646205</v>
       </c>
       <c r="Q15">
-        <v>0.2910938366648835</v>
+        <v>0.07554241042833332</v>
       </c>
       <c r="R15">
-        <v>0.2910938366648835</v>
+        <v>0.6798816938549999</v>
       </c>
       <c r="S15">
-        <v>9.306141951696123E-05</v>
+        <v>2.13748007166614E-05</v>
       </c>
       <c r="T15">
-        <v>9.306141951696123E-05</v>
+        <v>3.019854720084831E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.231265986431065</v>
+        <v>0.05691833333333333</v>
       </c>
       <c r="H16">
-        <v>0.231265986431065</v>
+        <v>0.170755</v>
       </c>
       <c r="I16">
-        <v>0.0008181502931822288</v>
+        <v>0.00019485762472117</v>
       </c>
       <c r="J16">
-        <v>0.0008181502931822288</v>
+        <v>0.0002285557587770574</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.245400130904583</v>
+        <v>0.250284</v>
       </c>
       <c r="N16">
-        <v>0.245400130904583</v>
+        <v>0.750852</v>
       </c>
       <c r="O16">
-        <v>0.02217635298087786</v>
+        <v>0.02068612257180288</v>
       </c>
       <c r="P16">
-        <v>0.02217635298087786</v>
+        <v>0.02491657276034671</v>
       </c>
       <c r="Q16">
-        <v>0.05675270334396087</v>
+        <v>0.01424574814</v>
       </c>
       <c r="R16">
-        <v>0.05675270334396087</v>
+        <v>0.12821173326</v>
       </c>
       <c r="S16">
-        <v>1.814358969301781E-05</v>
+        <v>4.03084870903249E-06</v>
       </c>
       <c r="T16">
-        <v>1.814358969301781E-05</v>
+        <v>5.694826193364802E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.231265986431065</v>
+        <v>0.05691833333333333</v>
       </c>
       <c r="H17">
-        <v>0.231265986431065</v>
+        <v>0.170755</v>
       </c>
       <c r="I17">
-        <v>0.0008181502931822288</v>
+        <v>0.00019485762472117</v>
       </c>
       <c r="J17">
-        <v>0.0008181502931822288</v>
+        <v>0.0002285557587770574</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.348726167180263</v>
+        <v>0.3570200000000001</v>
       </c>
       <c r="N17">
-        <v>0.348726167180263</v>
+        <v>1.07106</v>
       </c>
       <c r="O17">
-        <v>0.03151373452227327</v>
+        <v>0.02950791692870925</v>
       </c>
       <c r="P17">
-        <v>0.03151373452227327</v>
+        <v>0.03554248296694548</v>
       </c>
       <c r="Q17">
-        <v>0.08064850104726801</v>
+        <v>0.02032098336666667</v>
       </c>
       <c r="R17">
-        <v>0.08064850104726801</v>
+        <v>0.1828888503</v>
       </c>
       <c r="S17">
-        <v>2.57829711386648E-05</v>
+        <v>5.749842603197886E-06</v>
       </c>
       <c r="T17">
-        <v>2.57829711386648E-05</v>
+        <v>8.123439163330864E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.231265986431065</v>
+        <v>0.05691833333333333</v>
       </c>
       <c r="H18">
-        <v>0.231265986431065</v>
+        <v>0.170755</v>
       </c>
       <c r="I18">
-        <v>0.0008181502931822288</v>
+        <v>0.00019485762472117</v>
       </c>
       <c r="J18">
-        <v>0.0008181502931822288</v>
+        <v>0.0002285557587770574</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.69029222727481</v>
+        <v>4.001879333333334</v>
       </c>
       <c r="N18">
-        <v>3.69029222727481</v>
+        <v>12.005638</v>
       </c>
       <c r="O18">
-        <v>0.3334848385490725</v>
+        <v>0.3307577248521605</v>
       </c>
       <c r="P18">
-        <v>0.3334848385490725</v>
+        <v>0.3983998880756572</v>
       </c>
       <c r="Q18">
-        <v>0.8534390721596008</v>
+        <v>0.2277803018544445</v>
       </c>
       <c r="R18">
-        <v>0.8534390721596008</v>
+        <v>2.05002271669</v>
       </c>
       <c r="S18">
-        <v>0.000272840718430752</v>
+        <v>6.44506646228703E-05</v>
       </c>
       <c r="T18">
-        <v>0.000272840718430752</v>
+        <v>9.105658871582659E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.231265986431065</v>
+        <v>0.05691833333333333</v>
       </c>
       <c r="H19">
-        <v>0.231265986431065</v>
+        <v>0.170755</v>
       </c>
       <c r="I19">
-        <v>0.0008181502931822288</v>
+        <v>0.00019485762472117</v>
       </c>
       <c r="J19">
-        <v>0.0008181502931822288</v>
+        <v>0.0002285557587770574</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.602581474159304</v>
+        <v>0.611755</v>
       </c>
       <c r="N19">
-        <v>0.602581474159304</v>
+        <v>1.22351</v>
       </c>
       <c r="O19">
-        <v>0.0544541660244277</v>
+        <v>0.05056191731758031</v>
       </c>
       <c r="P19">
-        <v>0.0544541660244277</v>
+        <v>0.04060144467619692</v>
       </c>
       <c r="Q19">
-        <v>0.1393565990265367</v>
+        <v>0.03482007500833333</v>
       </c>
       <c r="R19">
-        <v>0.1393565990265367</v>
+        <v>0.20892045005</v>
       </c>
       <c r="S19">
-        <v>4.455169189787929E-05</v>
+        <v>9.852375109851892E-06</v>
       </c>
       <c r="T19">
-        <v>4.455169189787929E-05</v>
+        <v>9.279693995412905E-06</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>56.188885535294</v>
+        <v>0.2678446666666667</v>
       </c>
       <c r="H20">
-        <v>56.188885535294</v>
+        <v>0.803534</v>
       </c>
       <c r="I20">
-        <v>0.1987795692903866</v>
+        <v>0.0009169554427261318</v>
       </c>
       <c r="J20">
-        <v>0.1987795692903866</v>
+        <v>0.001075531159106112</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.92014993748544</v>
+        <v>5.5509805</v>
       </c>
       <c r="N20">
-        <v>4.92014993748544</v>
+        <v>11.101961</v>
       </c>
       <c r="O20">
-        <v>0.444624790257125</v>
+        <v>0.4587918645086687</v>
       </c>
       <c r="P20">
-        <v>0.444624790257125</v>
+        <v>0.3684119094562331</v>
       </c>
       <c r="Q20">
-        <v>276.4577416538533</v>
+        <v>1.486800521695667</v>
       </c>
       <c r="R20">
-        <v>276.4577416538533</v>
+        <v>8.920803130173999</v>
       </c>
       <c r="S20">
-        <v>0.08838232430313978</v>
+        <v>0.0004206916972396938</v>
       </c>
       <c r="T20">
-        <v>0.08838232430313978</v>
+        <v>0.0003962384880059582</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>56.188885535294</v>
+        <v>0.2678446666666667</v>
       </c>
       <c r="H21">
-        <v>56.188885535294</v>
+        <v>0.803534</v>
       </c>
       <c r="I21">
-        <v>0.1987795692903866</v>
+        <v>0.0009169554427261318</v>
       </c>
       <c r="J21">
-        <v>0.1987795692903866</v>
+        <v>0.001075531159106112</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.25869714417192</v>
+        <v>1.327207</v>
       </c>
       <c r="N21">
-        <v>1.25869714417192</v>
+        <v>3.981621</v>
       </c>
       <c r="O21">
-        <v>0.1137461176662237</v>
+        <v>0.1096944538210784</v>
       </c>
       <c r="P21">
-        <v>0.1137461176662237</v>
+        <v>0.1321277020646205</v>
       </c>
       <c r="Q21">
-        <v>70.72478975747745</v>
+        <v>0.3554853165126666</v>
       </c>
       <c r="R21">
-        <v>70.72478975747745</v>
+        <v>3.199367848614</v>
       </c>
       <c r="S21">
-        <v>0.02261040427814558</v>
+        <v>0.0001005849264681081</v>
       </c>
       <c r="T21">
-        <v>0.02261040427814558</v>
+        <v>0.0001421074605515883</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>56.188885535294</v>
+        <v>0.2678446666666667</v>
       </c>
       <c r="H22">
-        <v>56.188885535294</v>
+        <v>0.803534</v>
       </c>
       <c r="I22">
-        <v>0.1987795692903866</v>
+        <v>0.0009169554427261318</v>
       </c>
       <c r="J22">
-        <v>0.1987795692903866</v>
+        <v>0.001075531159106112</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.245400130904583</v>
+        <v>0.250284</v>
       </c>
       <c r="N22">
-        <v>0.245400130904583</v>
+        <v>0.750852</v>
       </c>
       <c r="O22">
-        <v>0.02217635298087786</v>
+        <v>0.02068612257180288</v>
       </c>
       <c r="P22">
-        <v>0.02217635298087786</v>
+        <v>0.02491657276034671</v>
       </c>
       <c r="Q22">
-        <v>13.78875986574378</v>
+        <v>0.067037234552</v>
       </c>
       <c r="R22">
-        <v>13.78875986574378</v>
+        <v>0.603335110968</v>
       </c>
       <c r="S22">
-        <v>0.004408205893970481</v>
+        <v>1.896825268111454E-05</v>
       </c>
       <c r="T22">
-        <v>0.004408205893970481</v>
+        <v>2.679855038188746E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>56.188885535294</v>
+        <v>0.2678446666666667</v>
       </c>
       <c r="H23">
-        <v>56.188885535294</v>
+        <v>0.803534</v>
       </c>
       <c r="I23">
-        <v>0.1987795692903866</v>
+        <v>0.0009169554427261318</v>
       </c>
       <c r="J23">
-        <v>0.1987795692903866</v>
+        <v>0.001075531159106112</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.348726167180263</v>
+        <v>0.3570200000000001</v>
       </c>
       <c r="N23">
-        <v>0.348726167180263</v>
+        <v>1.07106</v>
       </c>
       <c r="O23">
-        <v>0.03151373452227327</v>
+        <v>0.02950791692870925</v>
       </c>
       <c r="P23">
-        <v>0.03151373452227327</v>
+        <v>0.03554248296694548</v>
       </c>
       <c r="Q23">
-        <v>19.5945346908536</v>
+        <v>0.09562590289333335</v>
       </c>
       <c r="R23">
-        <v>19.5945346908536</v>
+        <v>0.8606331260400001</v>
       </c>
       <c r="S23">
-        <v>0.006264286575069066</v>
+        <v>2.705744503129051E-05</v>
       </c>
       <c r="T23">
-        <v>0.006264286575069066</v>
+        <v>3.82270479029481E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>56.188885535294</v>
+        <v>0.2678446666666667</v>
       </c>
       <c r="H24">
-        <v>56.188885535294</v>
+        <v>0.803534</v>
       </c>
       <c r="I24">
-        <v>0.1987795692903866</v>
+        <v>0.0009169554427261318</v>
       </c>
       <c r="J24">
-        <v>0.1987795692903866</v>
+        <v>0.001075531159106112</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3.69029222727481</v>
+        <v>4.001879333333334</v>
       </c>
       <c r="N24">
-        <v>3.69029222727481</v>
+        <v>12.005638</v>
       </c>
       <c r="O24">
-        <v>0.3334848385490725</v>
+        <v>0.3307577248521605</v>
       </c>
       <c r="P24">
-        <v>0.3334848385490725</v>
+        <v>0.3983998880756572</v>
       </c>
       <c r="Q24">
-        <v>207.3534075501294</v>
+        <v>1.071882036076889</v>
       </c>
       <c r="R24">
-        <v>207.3534075501294</v>
+        <v>9.646938324692</v>
       </c>
       <c r="S24">
-        <v>0.06628997257165874</v>
+        <v>0.0003032900960269009</v>
       </c>
       <c r="T24">
-        <v>0.06628997257165874</v>
+        <v>0.0004284914934097567</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,61 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>56.188885535294</v>
+        <v>0.2678446666666667</v>
       </c>
       <c r="H25">
-        <v>56.188885535294</v>
+        <v>0.803534</v>
       </c>
       <c r="I25">
-        <v>0.1987795692903866</v>
+        <v>0.0009169554427261318</v>
       </c>
       <c r="J25">
-        <v>0.1987795692903866</v>
+        <v>0.001075531159106112</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.602581474159304</v>
+        <v>0.611755</v>
       </c>
       <c r="N25">
-        <v>0.602581474159304</v>
+        <v>1.22351</v>
       </c>
       <c r="O25">
-        <v>0.0544541660244277</v>
+        <v>0.05056191731758031</v>
       </c>
       <c r="P25">
-        <v>0.0544541660244277</v>
+        <v>0.04060144467619692</v>
       </c>
       <c r="Q25">
-        <v>33.85838147722585</v>
+        <v>0.1638553140566667</v>
       </c>
       <c r="R25">
-        <v>33.85838147722585</v>
+        <v>0.9831318843400001</v>
       </c>
       <c r="S25">
-        <v>0.01082437566840294</v>
+        <v>4.636302527902393E-05</v>
       </c>
       <c r="T25">
-        <v>0.01082437566840294</v>
+        <v>4.366811885397273E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,61 +2016,61 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>35.5309832123493</v>
+        <v>58.20230466666667</v>
       </c>
       <c r="H26">
-        <v>35.5309832123493</v>
+        <v>174.606914</v>
       </c>
       <c r="I26">
-        <v>0.125698053487435</v>
+        <v>0.1992532489352207</v>
       </c>
       <c r="J26">
-        <v>0.125698053487435</v>
+        <v>0.2337115499809108</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>4.92014993748544</v>
+        <v>5.5509805</v>
       </c>
       <c r="N26">
-        <v>4.92014993748544</v>
+        <v>11.101961</v>
       </c>
       <c r="O26">
-        <v>0.444624790257125</v>
+        <v>0.4587918645086687</v>
       </c>
       <c r="P26">
-        <v>0.444624790257125</v>
+        <v>0.3684119094562331</v>
       </c>
       <c r="Q26">
-        <v>174.8177648310366</v>
+        <v>323.0798582597257</v>
       </c>
       <c r="R26">
-        <v>174.8177648310366</v>
+        <v>1938.479149558354</v>
       </c>
       <c r="S26">
-        <v>0.05588847066757967</v>
+        <v>0.09141576958839981</v>
       </c>
       <c r="T26">
-        <v>0.05588847066757967</v>
+        <v>0.08610211839044318</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,61 +2078,61 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>35.5309832123493</v>
+        <v>58.20230466666667</v>
       </c>
       <c r="H27">
-        <v>35.5309832123493</v>
+        <v>174.606914</v>
       </c>
       <c r="I27">
-        <v>0.125698053487435</v>
+        <v>0.1992532489352207</v>
       </c>
       <c r="J27">
-        <v>0.125698053487435</v>
+        <v>0.2337115499809108</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>1.25869714417192</v>
+        <v>1.327207</v>
       </c>
       <c r="N27">
-        <v>1.25869714417192</v>
+        <v>3.981621</v>
       </c>
       <c r="O27">
-        <v>0.1137461176662237</v>
+        <v>0.1096944538210784</v>
       </c>
       <c r="P27">
-        <v>0.1137461176662237</v>
+        <v>0.1321277020646205</v>
       </c>
       <c r="Q27">
-        <v>44.72274709900449</v>
+        <v>77.24650616973265</v>
       </c>
       <c r="R27">
-        <v>44.72274709900449</v>
+        <v>695.218555527594</v>
       </c>
       <c r="S27">
-        <v>0.01429766558239707</v>
+        <v>0.0218569763140244</v>
       </c>
       <c r="T27">
-        <v>0.01429766558239707</v>
+        <v>0.03087977004493844</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,61 +2140,61 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>35.5309832123493</v>
+        <v>58.20230466666667</v>
       </c>
       <c r="H28">
-        <v>35.5309832123493</v>
+        <v>174.606914</v>
       </c>
       <c r="I28">
-        <v>0.125698053487435</v>
+        <v>0.1992532489352207</v>
       </c>
       <c r="J28">
-        <v>0.125698053487435</v>
+        <v>0.2337115499809108</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.245400130904583</v>
+        <v>0.250284</v>
       </c>
       <c r="N28">
-        <v>0.245400130904583</v>
+        <v>0.750852</v>
       </c>
       <c r="O28">
-        <v>0.02217635298087786</v>
+        <v>0.02068612257180288</v>
       </c>
       <c r="P28">
-        <v>0.02217635298087786</v>
+        <v>0.02491657276034671</v>
       </c>
       <c r="Q28">
-        <v>8.71930793147906</v>
+        <v>14.567105621192</v>
       </c>
       <c r="R28">
-        <v>8.71930793147906</v>
+        <v>131.103950590728</v>
       </c>
       <c r="S28">
-        <v>0.002787524403146624</v>
+        <v>0.004121777130303927</v>
       </c>
       <c r="T28">
-        <v>0.002787524403146624</v>
+        <v>0.00582329084003277</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,61 +2202,61 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>35.5309832123493</v>
+        <v>58.20230466666667</v>
       </c>
       <c r="H29">
-        <v>35.5309832123493</v>
+        <v>174.606914</v>
       </c>
       <c r="I29">
-        <v>0.125698053487435</v>
+        <v>0.1992532489352207</v>
       </c>
       <c r="J29">
-        <v>0.125698053487435</v>
+        <v>0.2337115499809108</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.348726167180263</v>
+        <v>0.3570200000000001</v>
       </c>
       <c r="N29">
-        <v>0.348726167180263</v>
+        <v>1.07106</v>
       </c>
       <c r="O29">
-        <v>0.03151373452227327</v>
+        <v>0.02950791692870925</v>
       </c>
       <c r="P29">
-        <v>0.03151373452227327</v>
+        <v>0.03554248296694548</v>
       </c>
       <c r="Q29">
-        <v>12.39058359178884</v>
+        <v>20.77938681209334</v>
       </c>
       <c r="R29">
-        <v>12.39058359178884</v>
+        <v>187.01448130884</v>
       </c>
       <c r="S29">
-        <v>0.003961215087569533</v>
+        <v>0.005879548317355917</v>
       </c>
       <c r="T29">
-        <v>0.003961215087569533</v>
+        <v>0.008306688784374948</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,61 +2264,61 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>35.5309832123493</v>
+        <v>58.20230466666667</v>
       </c>
       <c r="H30">
-        <v>35.5309832123493</v>
+        <v>174.606914</v>
       </c>
       <c r="I30">
-        <v>0.125698053487435</v>
+        <v>0.1992532489352207</v>
       </c>
       <c r="J30">
-        <v>0.125698053487435</v>
+        <v>0.2337115499809108</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>3.69029222727481</v>
+        <v>4.001879333333334</v>
       </c>
       <c r="N30">
-        <v>3.69029222727481</v>
+        <v>12.005638</v>
       </c>
       <c r="O30">
-        <v>0.3334848385490725</v>
+        <v>0.3307577248521605</v>
       </c>
       <c r="P30">
-        <v>0.3334848385490725</v>
+        <v>0.3983998880756572</v>
       </c>
       <c r="Q30">
-        <v>131.1197111759644</v>
+        <v>232.9186001979036</v>
       </c>
       <c r="R30">
-        <v>131.1197111759644</v>
+        <v>2096.267401781132</v>
       </c>
       <c r="S30">
-        <v>0.04191839507318994</v>
+        <v>0.06590455128721477</v>
       </c>
       <c r="T30">
-        <v>0.04191839507318994</v>
+        <v>0.09311065535438322</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>58.20230466666667</v>
+      </c>
+      <c r="H31">
+        <v>174.606914</v>
+      </c>
+      <c r="I31">
+        <v>0.1992532489352207</v>
+      </c>
+      <c r="J31">
+        <v>0.2337115499809108</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.611755</v>
+      </c>
+      <c r="N31">
+        <v>1.22351</v>
+      </c>
+      <c r="O31">
+        <v>0.05056191731758031</v>
+      </c>
+      <c r="P31">
+        <v>0.04060144467619692</v>
+      </c>
+      <c r="Q31">
+        <v>35.60555089135667</v>
+      </c>
+      <c r="R31">
+        <v>213.63330534814</v>
+      </c>
+      <c r="S31">
+        <v>0.01007462629792188</v>
+      </c>
+      <c r="T31">
+        <v>0.009489026566738178</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>35.7744715</v>
+      </c>
+      <c r="H32">
+        <v>71.54894299999999</v>
+      </c>
+      <c r="I32">
+        <v>0.1224724642115052</v>
+      </c>
+      <c r="J32">
+        <v>0.09576834035349729</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>5.5509805</v>
+      </c>
+      <c r="N32">
+        <v>11.101961</v>
+      </c>
+      <c r="O32">
+        <v>0.4587918645086687</v>
+      </c>
+      <c r="P32">
+        <v>0.3684119094562331</v>
+      </c>
+      <c r="Q32">
+        <v>198.5833936943057</v>
+      </c>
+      <c r="R32">
+        <v>794.3335747772229</v>
+      </c>
+      <c r="S32">
+        <v>0.05618937020656768</v>
+      </c>
+      <c r="T32">
+        <v>0.03528219713508636</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>35.7744715</v>
+      </c>
+      <c r="H33">
+        <v>71.54894299999999</v>
+      </c>
+      <c r="I33">
+        <v>0.1224724642115052</v>
+      </c>
+      <c r="J33">
+        <v>0.09576834035349729</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1.327207</v>
+      </c>
+      <c r="N33">
+        <v>3.981621</v>
+      </c>
+      <c r="O33">
+        <v>0.1096944538210784</v>
+      </c>
+      <c r="P33">
+        <v>0.1321277020646205</v>
+      </c>
+      <c r="Q33">
+        <v>47.48012899610049</v>
+      </c>
+      <c r="R33">
+        <v>284.8807739766029</v>
+      </c>
+      <c r="S33">
+        <v>0.01343455006980263</v>
+      </c>
+      <c r="T33">
+        <v>0.01265365074145006</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>35.7744715</v>
+      </c>
+      <c r="H34">
+        <v>71.54894299999999</v>
+      </c>
+      <c r="I34">
+        <v>0.1224724642115052</v>
+      </c>
+      <c r="J34">
+        <v>0.09576834035349729</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>0.250284</v>
+      </c>
+      <c r="N34">
+        <v>0.750852</v>
+      </c>
+      <c r="O34">
+        <v>0.02068612257180288</v>
+      </c>
+      <c r="P34">
+        <v>0.02491657276034671</v>
+      </c>
+      <c r="Q34">
+        <v>8.953777824906</v>
+      </c>
+      <c r="R34">
+        <v>53.72266694943599</v>
+      </c>
+      <c r="S34">
+        <v>0.002533480406349939</v>
+      </c>
+      <c r="T34">
+        <v>0.002386218820555563</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>35.7744715</v>
+      </c>
+      <c r="H35">
+        <v>71.54894299999999</v>
+      </c>
+      <c r="I35">
+        <v>0.1224724642115052</v>
+      </c>
+      <c r="J35">
+        <v>0.09576834035349729</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0.3570200000000001</v>
+      </c>
+      <c r="N35">
+        <v>1.07106</v>
+      </c>
+      <c r="O35">
+        <v>0.02950791692870925</v>
+      </c>
+      <c r="P35">
+        <v>0.03554248296694548</v>
+      </c>
+      <c r="Q35">
+        <v>12.77220181493</v>
+      </c>
+      <c r="R35">
+        <v>76.63321088958</v>
+      </c>
+      <c r="S35">
+        <v>0.003613907300007413</v>
+      </c>
+      <c r="T35">
+        <v>0.003403844605786815</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>35.5309832123493</v>
-      </c>
-      <c r="H31">
-        <v>35.5309832123493</v>
-      </c>
-      <c r="I31">
-        <v>0.125698053487435</v>
-      </c>
-      <c r="J31">
-        <v>0.125698053487435</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>0.602581474159304</v>
-      </c>
-      <c r="N31">
-        <v>0.602581474159304</v>
-      </c>
-      <c r="O31">
-        <v>0.0544541660244277</v>
-      </c>
-      <c r="P31">
-        <v>0.0544541660244277</v>
-      </c>
-      <c r="Q31">
-        <v>21.41031224242692</v>
-      </c>
-      <c r="R31">
-        <v>21.41031224242692</v>
-      </c>
-      <c r="S31">
-        <v>0.00684478267355218</v>
-      </c>
-      <c r="T31">
-        <v>0.00684478267355218</v>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>35.7744715</v>
+      </c>
+      <c r="H36">
+        <v>71.54894299999999</v>
+      </c>
+      <c r="I36">
+        <v>0.1224724642115052</v>
+      </c>
+      <c r="J36">
+        <v>0.09576834035349729</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>4.001879333333334</v>
+      </c>
+      <c r="N36">
+        <v>12.005638</v>
+      </c>
+      <c r="O36">
+        <v>0.3307577248521605</v>
+      </c>
+      <c r="P36">
+        <v>0.3983998880756572</v>
+      </c>
+      <c r="Q36">
+        <v>143.1651181567723</v>
+      </c>
+      <c r="R36">
+        <v>858.990708940634</v>
+      </c>
+      <c r="S36">
+        <v>0.04050871361963512</v>
+      </c>
+      <c r="T36">
+        <v>0.03815409607802477</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>35.7744715</v>
+      </c>
+      <c r="H37">
+        <v>71.54894299999999</v>
+      </c>
+      <c r="I37">
+        <v>0.1224724642115052</v>
+      </c>
+      <c r="J37">
+        <v>0.09576834035349729</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>0.611755</v>
+      </c>
+      <c r="N37">
+        <v>1.22351</v>
+      </c>
+      <c r="O37">
+        <v>0.05056191731758031</v>
+      </c>
+      <c r="P37">
+        <v>0.04060144467619692</v>
+      </c>
+      <c r="Q37">
+        <v>21.8852118124825</v>
+      </c>
+      <c r="R37">
+        <v>87.54084724993</v>
+      </c>
+      <c r="S37">
+        <v>0.006192442609142442</v>
+      </c>
+      <c r="T37">
+        <v>0.003888332972593717</v>
       </c>
     </row>
   </sheetData>
